--- a/ClosedXML.Tests/Resource/Examples/Tables/UsingTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Tables/UsingTables.xlsx
@@ -765,16 +765,16 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="14.890625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="14.870625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="10.505425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.155425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.085425" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="10.140625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="10.895425" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="7.795425" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="10.875425" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="7.775425" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="16.725425" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="16.525425" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="13.830625" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="13.770625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:11">

--- a/ClosedXML.Tests/Resource/Examples/Tables/UsingTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Tables/UsingTables.xlsx
@@ -765,16 +765,16 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="12.520625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="9.285425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="9.955425" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="8.620625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="9.595425" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="7.215425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="14.015425" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="13.955425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="14.555425" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="12.415425" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="14.235425" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="11.915425" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="14.555425" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="18.635425" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="11.470625" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="13.935425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:11">

--- a/ClosedXML.Tests/Resource/Examples/Tables/UsingTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Tables/UsingTables.xlsx
@@ -765,16 +765,16 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="14.015425" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="13.955425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="14.555425" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="12.415425" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="14.235425" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="11.915425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="15.965425" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="15.885425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="16.665425" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="13.895425" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="16.265425" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="13.245425" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="18.635425" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="21.985425" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="13.935425" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="15.865425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:11">

--- a/ClosedXML.Tests/Resource/Examples/Tables/UsingTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Tables/UsingTables.xlsx
@@ -765,16 +765,16 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="15.965425" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="15.885425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="16.665425" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="13.895425" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="16.265425" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="13.245425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="16.100625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="11.885425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="12.665425" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.450625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="12.265425" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="9.245425" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="21.985425" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="17.985425" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="15.865425" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="15.020625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:11">

--- a/ClosedXML.Tests/Resource/Examples/Tables/UsingTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Tables/UsingTables.xlsx
@@ -765,16 +765,16 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="16.100625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="11.885425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="12.665425" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.450625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="12.265425" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="9.245425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="16.800625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="12.255425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="13.075425" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.930625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="12.645425" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="9.475425" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="17.985425" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="18.655425" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="15.020625" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="15.670625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:11">

--- a/ClosedXML.Tests/Resource/Examples/Tables/UsingTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Tables/UsingTables.xlsx
@@ -765,16 +765,16 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="16.800625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="12.255425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="13.075425" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.930625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="12.645425" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="9.475425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="15.80001" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="11.733194" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="12.495875" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.246332" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="12.098975" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="9.140453" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="18.655425" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="17.704829" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="15.670625" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="14.737877" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:11">

--- a/ClosedXML.Tests/Resource/Examples/Tables/UsingTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Tables/UsingTables.xlsx
@@ -765,16 +765,16 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="14.890625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.505425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.155425" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.140625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="10.895425" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="7.795425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="14.930625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.575425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.235425" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="10.220625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="10.975425" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="7.825425" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="16.725425" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="16.735425" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="13.830625" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="13.890625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:11">

--- a/ClosedXML.Tests/Resource/Examples/Tables/UsingTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Tables/UsingTables.xlsx
@@ -816,7 +816,7 @@
       <x:c r="E3" s="15">
         <x:v>6961</x:v>
       </x:c>
-      <x:c r="F3" s="16" t="n">
+      <x:c r="F3" s="16">
         <x:v>2000</x:v>
       </x:c>
       <x:c r="G3" s="17">
@@ -842,7 +842,7 @@
       <x:c r="E4" s="15">
         <x:v>2620</x:v>
       </x:c>
-      <x:c r="F4" s="16" t="n">
+      <x:c r="F4" s="16">
         <x:v>40000</x:v>
       </x:c>
       <x:c r="G4" s="17">
@@ -868,7 +868,7 @@
       <x:c r="E5" s="15">
         <x:v>8020</x:v>
       </x:c>
-      <x:c r="F5" s="16" t="n">
+      <x:c r="F5" s="16">
         <x:v>10000</x:v>
       </x:c>
       <x:c r="G5" s="17">
@@ -885,7 +885,7 @@
       <x:c r="B6" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="E6" s="15" t="s"/>
+      <x:c r="E6" s="15"/>
       <x:c r="F6" s="16">
         <x:f>SUBTOTAL(109,[Income])</x:f>
       </x:c>

--- a/ClosedXML.Tests/Resource/Examples/Tables/UsingTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Tables/UsingTables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>FName</x:t>
   </x:si>
@@ -76,8 +76,8 @@
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="3">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="165" formatCode="$ #,##0"/>
-    <x:numFmt numFmtId="166" formatCode="0.00"/>
+    <x:numFmt numFmtId="164" formatCode="$ #,##0"/>
+    <x:numFmt numFmtId="165" formatCode="0.00"/>
   </x:numFmts>
   <x:fonts count="2">
     <x:font>
@@ -317,7 +317,7 @@
     <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -329,16 +329,16 @@
     <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="15" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -383,7 +383,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -399,7 +399,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -407,11 +407,11 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/ClosedXML.Tests/Resource/Examples/Tables/UsingTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Tables/UsingTables.xlsx
@@ -765,16 +765,16 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="14.930625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.575425" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.235425" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.220625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="10.975425" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="7.825425" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="14.710625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="9.139196" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="10.282054" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="9.567768" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="9.996339" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="6.567768" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="16.735425" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="15.853482" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="13.890625" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="13.853482" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:11">

--- a/ClosedXML.Tests/Resource/Examples/Tables/UsingTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Tables/UsingTables.xlsx
@@ -754,7 +754,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>

--- a/ClosedXML.Tests/Resource/Examples/Tables/UsingTables.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Tables/UsingTables.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Contacts Table" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Contacts Table" sheetId="1" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
